--- a/genre/rapport_complet.xlsx
+++ b/genre/rapport_complet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Procasef_BETPLUS\Application\DashBoard\Dashnoard\genre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Procasef_BETPLUS\Application\StatsEnqPerDate\statistiques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6442B64-3A06-42DA-9E6F-310B770FCB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23403204-06A5-4220-803B-A8049A4184AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="1930" windowWidth="19200" windowHeight="11170" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Genre_Individuel" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t>Genre</t>
   </si>
@@ -89,33 +89,6 @@
   </si>
   <si>
     <t>2025-T2 (Avr-Mai-Jun)</t>
-  </si>
-  <si>
-    <t>BALLOU</t>
-  </si>
-  <si>
-    <t>GABOU</t>
-  </si>
-  <si>
-    <t>NDOGA BABACAR</t>
-  </si>
-  <si>
-    <t>MISSIRAH</t>
-  </si>
-  <si>
-    <t>NETTEBOULOU</t>
-  </si>
-  <si>
-    <t>BANDAFASSI</t>
-  </si>
-  <si>
-    <t>DIMBOLI</t>
-  </si>
-  <si>
-    <t>FONGOLIMBI</t>
-  </si>
-  <si>
-    <t>BEMBOU</t>
   </si>
 </sst>
 </file>
@@ -500,10 +473,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>8946</v>
+        <v>10528</v>
       </c>
       <c r="C2">
-        <v>83.654385636805685</v>
+        <v>83.146422366134885</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -511,10 +484,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1748</v>
+        <v>2134</v>
       </c>
       <c r="C3">
-        <v>16.345614363194311</v>
+        <v>16.853577633865111</v>
       </c>
     </row>
   </sheetData>
@@ -546,10 +519,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>24888</v>
+        <v>28042</v>
       </c>
       <c r="C2">
-        <v>80.674230145867099</v>
+        <v>81.41330855882012</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -557,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>5962</v>
+        <v>6402</v>
       </c>
       <c r="C3">
-        <v>19.325769854132901</v>
+        <v>18.586691441179891</v>
       </c>
     </row>
   </sheetData>
@@ -592,10 +565,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>33834</v>
+        <v>38570</v>
       </c>
       <c r="C2">
-        <v>81.44136337377239</v>
+        <v>81.879166135948708</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -603,10 +576,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>7710</v>
+        <v>8536</v>
       </c>
       <c r="C3">
-        <v>18.55863662622761</v>
+        <v>18.120833864051288</v>
       </c>
     </row>
   </sheetData>
@@ -638,10 +611,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>5115</v>
+        <v>5798</v>
       </c>
       <c r="C2">
-        <v>94.687152906330979</v>
+        <v>94.661224489795913</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -649,10 +622,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="C3">
-        <v>5.3128470936690109</v>
+        <v>5.3387755102040817</v>
       </c>
     </row>
   </sheetData>
@@ -665,10 +638,15 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="A1:I3"/>
+      <selection sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -704,28 +682,28 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>8946</v>
+        <v>10528</v>
       </c>
       <c r="C2">
-        <v>83.654385636805685</v>
+        <v>83.146422366134885</v>
       </c>
       <c r="D2">
-        <v>24888</v>
+        <v>28042</v>
       </c>
       <c r="E2">
-        <v>80.674230145867099</v>
+        <v>81.41330855882012</v>
       </c>
       <c r="F2">
-        <v>33834</v>
+        <v>38570</v>
       </c>
       <c r="G2">
-        <v>81.44136337377239</v>
+        <v>81.879166135948708</v>
       </c>
       <c r="H2">
-        <v>5115</v>
+        <v>5798</v>
       </c>
       <c r="I2">
-        <v>94.687152906330979</v>
+        <v>94.661224489795913</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -733,28 +711,28 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1748</v>
+        <v>2134</v>
       </c>
       <c r="C3">
-        <v>16.345614363194311</v>
+        <v>16.853577633865111</v>
       </c>
       <c r="D3">
-        <v>5962</v>
+        <v>6402</v>
       </c>
       <c r="E3">
-        <v>19.325769854132901</v>
+        <v>18.586691441179891</v>
       </c>
       <c r="F3">
-        <v>7710</v>
+        <v>8536</v>
       </c>
       <c r="G3">
-        <v>18.55863662622761</v>
+        <v>18.120833864051288</v>
       </c>
       <c r="H3">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="I3">
-        <v>5.3128470936690109</v>
+        <v>5.3387755102040817</v>
       </c>
     </row>
   </sheetData>
@@ -764,19 +742,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -799,185 +771,223 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
+      <c r="A2" s="1">
+        <v>5120301</v>
       </c>
       <c r="B2">
         <v>450</v>
       </c>
       <c r="C2">
-        <v>5054</v>
+        <v>5060</v>
       </c>
       <c r="D2">
-        <v>5504</v>
+        <v>5510</v>
       </c>
       <c r="E2">
-        <f>(B2*100)/D2</f>
-        <v>8.1758720930232567</v>
+        <v>8.1669691470054442</v>
       </c>
       <c r="F2">
-        <f>(C2*100)/D2</f>
-        <v>91.824127906976742</v>
+        <v>91.833030852994554</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
+      <c r="A3" s="1">
+        <v>5120302</v>
       </c>
       <c r="B3">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="C3">
-        <v>2620</v>
+        <v>3815</v>
       </c>
       <c r="D3">
-        <v>2787</v>
+        <v>4015</v>
       </c>
       <c r="E3">
-        <v>5.9921062073914602</v>
+        <v>4.9813200498132</v>
       </c>
       <c r="F3">
-        <v>94.007893792608542</v>
+        <v>95.018679950186808</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
+      <c r="A4" s="1">
+        <v>5120303</v>
       </c>
       <c r="B4">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>953</v>
+      </c>
+      <c r="D4">
+        <v>1002</v>
+      </c>
+      <c r="E4">
+        <v>4.8902195608782426</v>
+      </c>
+      <c r="F4">
+        <v>95.109780439121764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>5220202</v>
+      </c>
+      <c r="B5">
         <v>97</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>1081</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>1178</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>8.2342954159592523</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>91.765704584040748</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5220302</v>
+      </c>
+      <c r="B6">
         <v>1015</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>5076</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>6091</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>16.66393038909867</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>83.336069610901333</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6">
-        <v>482</v>
-      </c>
-      <c r="C6">
-        <v>6420</v>
-      </c>
-      <c r="D6">
-        <v>6902</v>
-      </c>
-      <c r="E6">
-        <v>6.9834830483917703</v>
-      </c>
-      <c r="F6">
-        <v>93.016516951608224</v>
-      </c>
-    </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
+      <c r="A7" s="1">
+        <v>5220303</v>
       </c>
       <c r="B7">
+        <v>484</v>
+      </c>
+      <c r="C7">
+        <v>6427</v>
+      </c>
+      <c r="D7">
+        <v>6911</v>
+      </c>
+      <c r="E7">
+        <v>7.0033280277817962</v>
+      </c>
+      <c r="F7">
+        <v>92.996671972218209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>13120101</v>
+      </c>
+      <c r="B8">
         <v>2381</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>5784</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>8165</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>29.161053276178809</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>70.838946723821181</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8">
-        <v>1335</v>
-      </c>
-      <c r="C8">
-        <v>3449</v>
-      </c>
-      <c r="D8">
-        <v>4784</v>
-      </c>
-      <c r="E8">
-        <v>27.90551839464883</v>
-      </c>
-      <c r="F8">
-        <v>72.094481605351163</v>
-      </c>
-    </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
+      <c r="A9" s="1">
+        <v>13120103</v>
       </c>
       <c r="B9">
+        <v>363</v>
+      </c>
+      <c r="C9">
+        <v>1167</v>
+      </c>
+      <c r="D9">
+        <v>1530</v>
+      </c>
+      <c r="E9">
+        <v>23.725490196078429</v>
+      </c>
+      <c r="F9">
+        <v>76.274509803921561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>13120201</v>
+      </c>
+      <c r="B10">
+        <v>1353</v>
+      </c>
+      <c r="C10">
+        <v>3504</v>
+      </c>
+      <c r="D10">
+        <v>4857</v>
+      </c>
+      <c r="E10">
+        <v>27.856701667696111</v>
+      </c>
+      <c r="F10">
+        <v>72.1432983323039</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>13120202</v>
+      </c>
+      <c r="B11">
         <v>1344</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>3041</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <v>4385</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>30.649942987457241</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <v>69.350057012542749</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10">
-        <v>439</v>
-      </c>
-      <c r="C10">
-        <v>1297</v>
-      </c>
-      <c r="D10">
-        <v>1736</v>
-      </c>
-      <c r="E10">
-        <v>25.288018433179719</v>
-      </c>
-      <c r="F10">
-        <v>74.71198156682027</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>13320102</v>
+      </c>
+      <c r="B12">
+        <v>800</v>
+      </c>
+      <c r="C12">
+        <v>2650</v>
+      </c>
+      <c r="D12">
+        <v>3450</v>
+      </c>
+      <c r="E12">
+        <v>23.188405797101449</v>
+      </c>
+      <c r="F12">
+        <v>76.811594202898547</v>
       </c>
     </row>
   </sheetData>
@@ -990,10 +1000,13 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="A1:F4"/>
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1043,16 +1056,16 @@
         <v>4039</v>
       </c>
       <c r="C3">
-        <v>18677</v>
+        <v>18676</v>
       </c>
       <c r="D3">
-        <v>22716</v>
+        <v>22715</v>
       </c>
       <c r="E3">
-        <v>17.780419087867578</v>
+        <v>17.78120184899846</v>
       </c>
       <c r="F3">
-        <v>82.219580912132415</v>
+        <v>82.218798151001536</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1060,19 +1073,19 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>2064</v>
+        <v>2890</v>
       </c>
       <c r="C4">
-        <v>9093</v>
+        <v>13830</v>
       </c>
       <c r="D4">
-        <v>11157</v>
+        <v>16720</v>
       </c>
       <c r="E4">
-        <v>18.499596665770369</v>
+        <v>17.284688995215308</v>
       </c>
       <c r="F4">
-        <v>81.500403334229631</v>
+        <v>82.715311004784681</v>
       </c>
     </row>
   </sheetData>
